--- a/src/doc/Выгрузка операций 2-1.xlsx
+++ b/src/doc/Выгрузка операций 2-1.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -992,9 +993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO1" sqref="AO1"/>
+      <selection pane="bottomLeft" activeCell="CA5" sqref="CA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
